--- a/data/arrestperpop2018_df.xlsx
+++ b/data/arrestperpop2018_df.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\das689-admin\Desktop\Legalization-Impacts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B13958B-BE9C-4070-BD58-B12C89F3D8B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F9077-0FED-4EDE-BAD5-EE0B8E82645E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="arrestperpop2018_df" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -244,11 +244,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +382,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -725,10 +730,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1432,7 +1439,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.3871179986552968E-3</c:v>
+                  <c:v>8.0947697083561098E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.919630652735766E-3</c:v>
@@ -1543,7 +1550,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.1615431589812339E-3</c:v>
+                  <c:v>1.1210554543023053E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.0396598946210842E-4</c:v>
@@ -3226,7 +3233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -5867,18 +5874,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5935,16 +5943,16 @@
       <c r="C3">
         <v>3578</v>
       </c>
-      <c r="D3">
-        <v>1089840</v>
+      <c r="D3" s="3">
+        <v>3737635</v>
       </c>
       <c r="E3">
         <f>B3/D3</f>
-        <v>1.192835645599354E-4</v>
+        <v>3.4781352379245166E-5</v>
       </c>
       <c r="F3">
         <f>C3/D3</f>
-        <v>3.2830507230419146E-3</v>
+        <v>9.5728983702260927E-4</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -5971,7 +5979,7 @@
         <v>1642657</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5981,16 +5989,16 @@
       <c r="C4">
         <v>15400</v>
       </c>
-      <c r="D4">
-        <v>2505751</v>
+      <c r="D4" s="4">
+        <v>736205</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E19" si="0">B4/D4</f>
-        <v>8.1931524720532884E-4</v>
+        <v>2.7886254507915593E-3</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F19" si="1">C4/D4</f>
-        <v>6.145862058919661E-3</v>
+        <v>2.0918086674227968E-2</v>
       </c>
       <c r="H4" t="s">
         <v>63</v>
@@ -6027,7 +6035,7 @@
       <c r="C5">
         <v>5993</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>446972</v>
       </c>
       <c r="E5">
@@ -6073,7 +6081,7 @@
       <c r="C6">
         <v>8831</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>1568130</v>
       </c>
       <c r="E6">
@@ -6113,6 +6121,7 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
+      <c r="D7" s="3"/>
       <c r="H7" t="s">
         <v>20</v>
       </c>
@@ -6148,7 +6157,7 @@
       <c r="C8">
         <v>1639</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>705961</v>
       </c>
       <c r="E8">
@@ -6194,7 +6203,7 @@
       <c r="C9">
         <v>2985</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1008829</v>
       </c>
       <c r="E9">
@@ -6240,7 +6249,7 @@
       <c r="C10">
         <v>2453</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>706141</v>
       </c>
       <c r="E10">
@@ -6286,7 +6295,7 @@
       <c r="C11">
         <v>6985</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>476841</v>
       </c>
       <c r="E11">
@@ -6332,7 +6341,7 @@
       <c r="C12">
         <v>11088</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>2300645</v>
       </c>
       <c r="E12">
@@ -6378,7 +6387,7 @@
       <c r="C13">
         <v>10803</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>1105945</v>
       </c>
       <c r="E13">
@@ -6424,7 +6433,7 @@
       <c r="C14">
         <v>4886</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>217606</v>
       </c>
       <c r="E14">
@@ -6458,7 +6467,7 @@
       <c r="C15">
         <v>19692</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>1506220</v>
       </c>
       <c r="E15">
@@ -6492,7 +6501,7 @@
       <c r="C16">
         <v>55458</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>7398099</v>
       </c>
       <c r="E16">
@@ -6526,7 +6535,7 @@
       <c r="C17">
         <v>15864</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>1869792</v>
       </c>
       <c r="E17">
@@ -6560,7 +6569,7 @@
       <c r="C18">
         <v>35109</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>1276103</v>
       </c>
       <c r="E18">
@@ -6594,7 +6603,7 @@
       <c r="C19">
         <v>3191</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>134775</v>
       </c>
       <c r="E19">
@@ -6702,15 +6711,15 @@
       </c>
       <c r="D25">
         <f>SUM(D3:D19)</f>
-        <v>24317650</v>
+        <v>25195899</v>
       </c>
       <c r="E25" s="2">
         <f>C25/D25</f>
-        <v>8.3871179986552968E-3</v>
+        <v>8.0947697083561098E-3</v>
       </c>
       <c r="F25" s="2">
         <f>B25/D25</f>
-        <v>1.1615431589812339E-3</v>
+        <v>1.1210554543023053E-3</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -6816,10 +6825,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -7719,7 +7728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
